--- a/Config/Translation_establishmentMeans.xlsx
+++ b/Config/Translation_establishmentMeans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\Data\SInAS workflow - native and alien\v6\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\Data\SInAS workflow - native and alien\v11\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FC8E89-8AA9-4090-9D46-75029C73100F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2E72A6-2E4F-48A1-88A4-EFD2535B17E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>origTerm</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>established.indoors</t>
+  </si>
+  <si>
+    <t>invasive</t>
   </si>
 </sst>
 </file>
@@ -487,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -707,6 +710,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Config/Translation_establishmentMeans.xlsx
+++ b/Config/Translation_establishmentMeans.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\Data\SInAS workflow - native and alien\v11\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\1. Data paper\SInAS-dataset_final_v2\SInAS-workflow_update\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2E72A6-2E4F-48A1-88A4-EFD2535B17E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9988D38-D4ED-4D30-BC3C-A80329124C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
   <si>
     <t>origTerm</t>
   </si>
@@ -108,10 +108,19 @@
     <t>established.outdoors</t>
   </si>
   <si>
-    <t>established.indoors</t>
-  </si>
-  <si>
     <t>invasive</t>
+  </si>
+  <si>
+    <t>established  invasive</t>
+  </si>
+  <si>
+    <t>naturalised, invasive</t>
+  </si>
+  <si>
+    <t>naturalised, cryptogenic, invasive</t>
+  </si>
+  <si>
+    <t>naturalised, cryptogenic</t>
   </si>
 </sst>
 </file>
@@ -490,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -651,7 +660,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -715,6 +724,30 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
         <v>5</v>
       </c>
     </row>
